--- a/Code/Results/Cases/Case_9_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.60616895031128</v>
+        <v>17.35750885716226</v>
       </c>
       <c r="C2">
-        <v>13.16907481228348</v>
+        <v>13.47378314160423</v>
       </c>
       <c r="D2">
-        <v>4.458449400711547</v>
+        <v>4.535460665508388</v>
       </c>
       <c r="E2">
-        <v>15.27039869605172</v>
+        <v>15.20818989370556</v>
       </c>
       <c r="F2">
-        <v>17.12062772769314</v>
+        <v>16.82413354404091</v>
       </c>
       <c r="G2">
-        <v>21.27079603438614</v>
+        <v>20.08800935566822</v>
       </c>
       <c r="H2">
-        <v>2.300104613987894</v>
+        <v>2.281852059746424</v>
       </c>
       <c r="I2">
-        <v>3.287561440325308</v>
+        <v>3.27202963472893</v>
       </c>
       <c r="J2">
-        <v>8.102790257138105</v>
+        <v>8.671457109220611</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.0190125389844</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.618823184394829</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.47163945402708</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.9667153949726</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.30099121918477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.48304377042859</v>
+      </c>
+      <c r="R2">
+        <v>12.01502049863309</v>
+      </c>
+      <c r="S2">
+        <v>13.08741640595849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.48150489379142</v>
+        <v>16.28532029058591</v>
       </c>
       <c r="C3">
-        <v>12.57208627356523</v>
+        <v>12.77187156069696</v>
       </c>
       <c r="D3">
-        <v>4.265073289804762</v>
+        <v>4.325641728558007</v>
       </c>
       <c r="E3">
-        <v>14.58576222343383</v>
+        <v>14.53757932406798</v>
       </c>
       <c r="F3">
-        <v>16.54322842319781</v>
+        <v>16.30126584754203</v>
       </c>
       <c r="G3">
-        <v>20.42413706102352</v>
+        <v>19.30796264641803</v>
       </c>
       <c r="H3">
-        <v>2.106765841376773</v>
+        <v>2.09476396713173</v>
       </c>
       <c r="I3">
-        <v>3.147727397649712</v>
+        <v>3.148137952307393</v>
       </c>
       <c r="J3">
-        <v>8.055712600700968</v>
+        <v>8.617483915247458</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.17917037323127</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.58206413988465</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.52246440666599</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.04027082212754</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.05965933341482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.53482643224869</v>
+      </c>
+      <c r="R3">
+        <v>12.06612553425537</v>
+      </c>
+      <c r="S3">
+        <v>12.88542973691315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.74714672979586</v>
+        <v>15.5851537530132</v>
       </c>
       <c r="C4">
-        <v>12.1929813414703</v>
+        <v>12.32516582442424</v>
       </c>
       <c r="D4">
-        <v>4.141479581456948</v>
+        <v>4.191501786640536</v>
       </c>
       <c r="E4">
-        <v>14.14755752617769</v>
+        <v>14.10867496263455</v>
       </c>
       <c r="F4">
-        <v>16.1864997965376</v>
+        <v>15.97775661975138</v>
       </c>
       <c r="G4">
-        <v>19.89652043907647</v>
+        <v>18.8226355442789</v>
       </c>
       <c r="H4">
-        <v>1.983684044637936</v>
+        <v>1.975623047157269</v>
       </c>
       <c r="I4">
-        <v>3.059261725525218</v>
+        <v>3.069871136813949</v>
       </c>
       <c r="J4">
-        <v>8.029596614128049</v>
+        <v>8.585082728466803</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.28004758097311</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.583338883876805</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.90951273088852</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.08790178697963</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.91501715294138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.92241415562343</v>
+      </c>
+      <c r="R4">
+        <v>12.10035652317683</v>
+      </c>
+      <c r="S4">
+        <v>12.76407895875842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.43147943370118</v>
+        <v>15.28397706405245</v>
       </c>
       <c r="C5">
-        <v>12.04445205057243</v>
+        <v>12.14864366007936</v>
       </c>
       <c r="D5">
-        <v>4.091227052768815</v>
+        <v>4.136848591928699</v>
       </c>
       <c r="E5">
-        <v>13.96409973837483</v>
+        <v>13.92920052688573</v>
       </c>
       <c r="F5">
-        <v>16.03391676244286</v>
+        <v>15.83867624298619</v>
       </c>
       <c r="G5">
-        <v>19.667166045498</v>
+        <v>18.61063100288885</v>
       </c>
       <c r="H5">
-        <v>1.932272270618778</v>
+        <v>1.925849950006924</v>
       </c>
       <c r="I5">
-        <v>3.022894891873582</v>
+        <v>3.038015878032857</v>
       </c>
       <c r="J5">
-        <v>8.017624523736293</v>
+        <v>8.570129500790573</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.31745597739895</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.587031063175871</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.65243534674717</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.10868231397574</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.85178706451845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.66554767263062</v>
+      </c>
+      <c r="R5">
+        <v>12.11583709045152</v>
+      </c>
+      <c r="S5">
+        <v>12.71018782760751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.37181232657048</v>
+        <v>15.22681036408206</v>
       </c>
       <c r="C6">
-        <v>12.03063163138611</v>
+        <v>12.13051460924847</v>
       </c>
       <c r="D6">
-        <v>4.084407175171377</v>
+        <v>4.129296685703928</v>
       </c>
       <c r="E6">
-        <v>13.93274282372541</v>
+        <v>13.89853538963172</v>
       </c>
       <c r="F6">
-        <v>16.00015458847539</v>
+        <v>15.807242615951</v>
       </c>
       <c r="G6">
-        <v>19.61343702395447</v>
+        <v>18.55958829567426</v>
       </c>
       <c r="H6">
-        <v>1.923494579618985</v>
+        <v>1.917353141807127</v>
       </c>
       <c r="I6">
-        <v>3.017425355558227</v>
+        <v>3.033645695917774</v>
       </c>
       <c r="J6">
-        <v>8.013206326288641</v>
+        <v>8.565289724317532</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.3184091480664</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.58456814116404</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.60950734302781</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.11310790586115</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.83496089743823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.62265457833182</v>
+      </c>
+      <c r="R6">
+        <v>12.11947022851698</v>
+      </c>
+      <c r="S6">
+        <v>12.69500493541573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.72536570214405</v>
+        <v>15.55817418375294</v>
       </c>
       <c r="C7">
-        <v>12.22067127215766</v>
+        <v>12.34703475642728</v>
       </c>
       <c r="D7">
-        <v>4.14510947853829</v>
+        <v>4.197962169343825</v>
       </c>
       <c r="E7">
-        <v>14.14341291919279</v>
+        <v>14.10614314843933</v>
       </c>
       <c r="F7">
-        <v>16.16172910915193</v>
+        <v>15.93914606995005</v>
       </c>
       <c r="G7">
-        <v>19.85152102812692</v>
+        <v>18.87827770902254</v>
       </c>
       <c r="H7">
-        <v>1.982530565440855</v>
+        <v>1.974165300297466</v>
       </c>
       <c r="I7">
-        <v>3.060141391266002</v>
+        <v>3.071194465531411</v>
       </c>
       <c r="J7">
-        <v>8.02270009813839</v>
+        <v>8.536760486450707</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.26173424887329</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.570137033830917</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.90662467697307</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.09081471683014</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.89682894660522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.91680651481301</v>
+      </c>
+      <c r="R7">
+        <v>12.10453506925444</v>
+      </c>
+      <c r="S7">
+        <v>12.73559351507263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.20596349222956</v>
+        <v>16.9581147049803</v>
       </c>
       <c r="C8">
-        <v>13.0033152528665</v>
+        <v>13.25345819341186</v>
       </c>
       <c r="D8">
-        <v>4.398248786476098</v>
+        <v>4.478831503409278</v>
       </c>
       <c r="E8">
-        <v>15.03605446766823</v>
+        <v>14.98351387347894</v>
       </c>
       <c r="F8">
-        <v>16.89329730972689</v>
+        <v>16.57035166123353</v>
       </c>
       <c r="G8">
-        <v>20.92787412321274</v>
+        <v>20.08706491495155</v>
       </c>
       <c r="H8">
-        <v>2.233761433347069</v>
+        <v>2.216598329885625</v>
       </c>
       <c r="I8">
-        <v>3.241320553010497</v>
+        <v>3.230750794346213</v>
       </c>
       <c r="J8">
-        <v>8.077158023444749</v>
+        <v>8.508506866432935</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.04258311693225</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.572772807646182</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.15135127023262</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.99536344015145</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.19466589971325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.1546744517561</v>
+      </c>
+      <c r="R8">
+        <v>12.04021738090152</v>
+      </c>
+      <c r="S8">
+        <v>12.96036496725709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.79067292914995</v>
+        <v>19.42003425597069</v>
       </c>
       <c r="C9">
-        <v>14.38477285027293</v>
+        <v>14.8734370511444</v>
       </c>
       <c r="D9">
-        <v>4.847706994498329</v>
+        <v>4.968214712846548</v>
       </c>
       <c r="E9">
-        <v>16.64347649870011</v>
+        <v>16.5605286578415</v>
       </c>
       <c r="F9">
-        <v>18.34009645719322</v>
+        <v>17.87247923308354</v>
       </c>
       <c r="G9">
-        <v>23.03456660915096</v>
+        <v>22.09141910036694</v>
       </c>
       <c r="H9">
-        <v>2.693153693850364</v>
+        <v>2.660720057687623</v>
       </c>
       <c r="I9">
-        <v>3.574896059176718</v>
+        <v>3.525526533572707</v>
       </c>
       <c r="J9">
-        <v>8.218415289559497</v>
+        <v>8.619828503511837</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.67209815236383</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.799446450793158</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.34827305121775</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.823056869194</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.83493121481291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.34764588274264</v>
+      </c>
+      <c r="R9">
+        <v>11.92762726901878</v>
+      </c>
+      <c r="S9">
+        <v>13.49039680680154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.47736754221917</v>
+        <v>21.00493220981675</v>
       </c>
       <c r="C10">
-        <v>15.34549750274262</v>
+        <v>15.95451541676615</v>
       </c>
       <c r="D10">
-        <v>5.172853835836942</v>
+        <v>5.333276170956276</v>
       </c>
       <c r="E10">
-        <v>17.22825726961192</v>
+        <v>17.13229628003365</v>
       </c>
       <c r="F10">
-        <v>19.2741296430218</v>
+        <v>18.63796190884317</v>
       </c>
       <c r="G10">
-        <v>24.33794035116637</v>
+        <v>23.82264651133634</v>
       </c>
       <c r="H10">
-        <v>2.987938162970125</v>
+        <v>2.94345192413361</v>
       </c>
       <c r="I10">
-        <v>3.80530942121441</v>
+        <v>3.727983675902794</v>
       </c>
       <c r="J10">
-        <v>8.303080351971369</v>
+        <v>8.451502213623971</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.35986140457571</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.996381256227847</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.52989851215283</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.73020626940872</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.23585502507925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.51371016128042</v>
+      </c>
+      <c r="R10">
+        <v>11.89033747776183</v>
+      </c>
+      <c r="S10">
+        <v>13.75741471880324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.21839858223292</v>
+        <v>21.69637442350916</v>
       </c>
       <c r="C11">
-        <v>15.81550831097344</v>
+        <v>16.3602444092356</v>
       </c>
       <c r="D11">
-        <v>5.481170331937802</v>
+        <v>5.67548507728914</v>
       </c>
       <c r="E11">
-        <v>13.41415197565799</v>
+        <v>13.30289762781238</v>
       </c>
       <c r="F11">
-        <v>18.86130338462756</v>
+        <v>18.08547971600549</v>
       </c>
       <c r="G11">
-        <v>23.42395839014648</v>
+        <v>24.01200892710371</v>
       </c>
       <c r="H11">
-        <v>3.5646408663108</v>
+        <v>3.523823845253311</v>
       </c>
       <c r="I11">
-        <v>3.879518477344616</v>
+        <v>3.791681444948242</v>
       </c>
       <c r="J11">
-        <v>8.070883792407232</v>
+        <v>7.805782018161714</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.955094711561417</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.669992974901747</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.63561586924792</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.88031560945308</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.74645213737708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.59312672645606</v>
+      </c>
+      <c r="R11">
+        <v>12.09128978370324</v>
+      </c>
+      <c r="S11">
+        <v>13.16446803275952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.52467596893182</v>
+        <v>21.99633545968231</v>
       </c>
       <c r="C12">
-        <v>15.9796626164173</v>
+        <v>16.46222245800044</v>
       </c>
       <c r="D12">
-        <v>5.671600630617983</v>
+        <v>5.877798894195982</v>
       </c>
       <c r="E12">
-        <v>10.62707369507931</v>
+        <v>10.48441063726648</v>
       </c>
       <c r="F12">
-        <v>18.33446232587258</v>
+        <v>17.51953643231806</v>
       </c>
       <c r="G12">
-        <v>22.41500963643588</v>
+        <v>23.55447470635793</v>
       </c>
       <c r="H12">
-        <v>4.606987195183956</v>
+        <v>4.575441787459305</v>
       </c>
       <c r="I12">
-        <v>3.895461084171074</v>
+        <v>3.803919438431461</v>
       </c>
       <c r="J12">
-        <v>7.861208988155159</v>
+        <v>7.461633063804425</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.719301488015196</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.380061847228939</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.7758979625852</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.04065447007695</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.26113348345909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.7221865911142</v>
+      </c>
+      <c r="R12">
+        <v>12.27610287402966</v>
+      </c>
+      <c r="S12">
+        <v>12.65655635708838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.50520943441565</v>
+        <v>22.01435681310027</v>
       </c>
       <c r="C13">
-        <v>15.96027992067108</v>
+        <v>16.39171563220051</v>
       </c>
       <c r="D13">
-        <v>5.792507952249516</v>
+        <v>5.987532227226359</v>
       </c>
       <c r="E13">
-        <v>8.929320100618055</v>
+        <v>8.752096671366374</v>
       </c>
       <c r="F13">
-        <v>17.64227090382818</v>
+        <v>16.89512303095966</v>
       </c>
       <c r="G13">
-        <v>21.18628986438362</v>
+        <v>22.27910145924693</v>
       </c>
       <c r="H13">
-        <v>5.805011018411564</v>
+        <v>5.781790027255165</v>
       </c>
       <c r="I13">
-        <v>3.87003130810513</v>
+        <v>3.781960097340807</v>
       </c>
       <c r="J13">
-        <v>7.644494684785696</v>
+        <v>7.358874292359273</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.575112606442282</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.092279361944445</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.77654420444023</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.2165730922189</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.71660850382921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.72726971268862</v>
+      </c>
+      <c r="R13">
+        <v>12.45002199233256</v>
+      </c>
+      <c r="S13">
+        <v>12.17541302418278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.3402863076442</v>
+        <v>21.89564558723688</v>
       </c>
       <c r="C14">
-        <v>15.87128012796843</v>
+        <v>16.27102446797019</v>
       </c>
       <c r="D14">
-        <v>5.848162727223862</v>
+        <v>6.024744664726514</v>
       </c>
       <c r="E14">
-        <v>8.735011398049803</v>
+        <v>8.554420000073073</v>
       </c>
       <c r="F14">
-        <v>17.069728295085</v>
+        <v>16.4177350951618</v>
       </c>
       <c r="G14">
-        <v>20.20140572830633</v>
+        <v>20.99748394022848</v>
       </c>
       <c r="H14">
-        <v>6.696838527731469</v>
+        <v>6.678389403068126</v>
       </c>
       <c r="I14">
-        <v>3.834496336332642</v>
+        <v>3.75233781397867</v>
       </c>
       <c r="J14">
-        <v>7.487832718682054</v>
+        <v>7.379187005023138</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.508298122858417</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.891232315746542</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.29021077654765</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.34775867127126</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.30152925026158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.25077752641937</v>
+      </c>
+      <c r="R14">
+        <v>12.56671985471875</v>
+      </c>
+      <c r="S14">
+        <v>11.84203964961614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.22415020082776</v>
+        <v>21.79959760658356</v>
       </c>
       <c r="C15">
-        <v>15.81973698566709</v>
+        <v>16.21330365129795</v>
       </c>
       <c r="D15">
-        <v>5.848326025567603</v>
+        <v>6.015824677776842</v>
       </c>
       <c r="E15">
-        <v>8.83064214996705</v>
+        <v>8.655829568784984</v>
       </c>
       <c r="F15">
-        <v>16.88739998876393</v>
+        <v>16.27917429573431</v>
       </c>
       <c r="G15">
-        <v>19.8998654251039</v>
+        <v>20.5102616686744</v>
       </c>
       <c r="H15">
-        <v>6.901396477795839</v>
+        <v>6.884229377278814</v>
       </c>
       <c r="I15">
-        <v>3.817377513807271</v>
+        <v>3.738653161549859</v>
       </c>
       <c r="J15">
-        <v>7.446751795008992</v>
+        <v>7.423326812232622</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.504446818921689</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.839488495903784</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.89475350901405</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.38188910463806</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.18317740292188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.86056461465685</v>
+      </c>
+      <c r="R15">
+        <v>12.59198227241874</v>
+      </c>
+      <c r="S15">
+        <v>11.75949610171091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.53342608686232</v>
+        <v>21.18440524642345</v>
       </c>
       <c r="C16">
-        <v>15.44241921503997</v>
+        <v>15.84254467750518</v>
       </c>
       <c r="D16">
-        <v>5.699112789002035</v>
+        <v>5.828113439642599</v>
       </c>
       <c r="E16">
-        <v>8.769058223080359</v>
+        <v>8.620117975035885</v>
       </c>
       <c r="F16">
-        <v>16.57735084575102</v>
+        <v>16.14034993584591</v>
       </c>
       <c r="G16">
-        <v>19.49042608115752</v>
+        <v>19.16740494917588</v>
       </c>
       <c r="H16">
-        <v>6.635742126515916</v>
+        <v>6.621284792200427</v>
       </c>
       <c r="I16">
-        <v>3.725982845166263</v>
+        <v>3.662333162563425</v>
       </c>
       <c r="J16">
-        <v>7.447027844632014</v>
+        <v>7.786365751356185</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.647839599151043</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.854985390370169</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.65919962362278</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.37129263880196</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.09305069624444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.64867178936626</v>
+      </c>
+      <c r="R16">
+        <v>12.53670727861478</v>
+      </c>
+      <c r="S16">
+        <v>11.8003640767384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.08221733106263</v>
+        <v>20.75955242038543</v>
       </c>
       <c r="C17">
-        <v>15.19802906264383</v>
+        <v>15.61214672496876</v>
       </c>
       <c r="D17">
-        <v>5.551679787900144</v>
+        <v>5.665460781861325</v>
       </c>
       <c r="E17">
-        <v>8.64305782207874</v>
+        <v>8.50244684727666</v>
       </c>
       <c r="F17">
-        <v>16.65519213006212</v>
+        <v>16.2789763832694</v>
       </c>
       <c r="G17">
-        <v>19.72232274411581</v>
+        <v>18.97481894741687</v>
       </c>
       <c r="H17">
-        <v>5.909601756972536</v>
+        <v>5.895124451336316</v>
       </c>
       <c r="I17">
-        <v>3.674506428162664</v>
+        <v>3.618857916939748</v>
       </c>
       <c r="J17">
-        <v>7.531529374359375</v>
+        <v>8.021255516880139</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.799140406211835</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.964772207961243</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.30389881147379</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.29546977735097</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.2499605602595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.30345116085935</v>
+      </c>
+      <c r="R17">
+        <v>12.43959418968198</v>
+      </c>
+      <c r="S17">
+        <v>11.99984044262674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.80916229768393</v>
+        <v>20.48176926174686</v>
       </c>
       <c r="C18">
-        <v>15.02356422210613</v>
+        <v>15.47090290072097</v>
       </c>
       <c r="D18">
-        <v>5.387787571192475</v>
+        <v>5.499156314482602</v>
       </c>
       <c r="E18">
-        <v>9.40596657904112</v>
+        <v>9.273451287374712</v>
       </c>
       <c r="F18">
-        <v>17.08849923183068</v>
+        <v>16.71164037769331</v>
       </c>
       <c r="G18">
-        <v>20.55788588151202</v>
+        <v>19.59472921674367</v>
       </c>
       <c r="H18">
-        <v>4.762031501367282</v>
+        <v>4.744511313188561</v>
       </c>
       <c r="I18">
-        <v>3.651303915350231</v>
+        <v>3.597822872205167</v>
       </c>
       <c r="J18">
-        <v>7.700946155235572</v>
+        <v>8.237351248241136</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.992152573661105</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.180825650904495</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.7901680501086</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.15811757900179</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.64546478939262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.79370624994458</v>
+      </c>
+      <c r="R18">
+        <v>12.29236405274631</v>
+      </c>
+      <c r="S18">
+        <v>12.388705855139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.67895853561609</v>
+        <v>20.32641211814981</v>
       </c>
       <c r="C19">
-        <v>14.97144175550852</v>
+        <v>15.47030455298313</v>
       </c>
       <c r="D19">
-        <v>5.233099785072613</v>
+        <v>5.349806413282629</v>
       </c>
       <c r="E19">
-        <v>11.82359759595646</v>
+        <v>11.70759268253877</v>
       </c>
       <c r="F19">
-        <v>17.72837165805797</v>
+        <v>17.31402049238742</v>
       </c>
       <c r="G19">
-        <v>21.73256252392941</v>
+        <v>20.6589816611749</v>
       </c>
       <c r="H19">
-        <v>3.560124032073003</v>
+        <v>3.535165210330481</v>
       </c>
       <c r="I19">
-        <v>3.66084364810083</v>
+        <v>3.606887845969962</v>
       </c>
       <c r="J19">
-        <v>7.913316558473925</v>
+        <v>8.440126782885217</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.19464934279991</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.447977026781526</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.82816073687323</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.00066878861816</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.16943594041242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.83228773017564</v>
+      </c>
+      <c r="R19">
+        <v>12.13146092055714</v>
+      </c>
+      <c r="S19">
+        <v>12.87694792361412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.00626859146547</v>
+        <v>20.57585333734837</v>
       </c>
       <c r="C20">
-        <v>15.176259852817</v>
+        <v>15.77526367587353</v>
       </c>
       <c r="D20">
-        <v>5.101690805732054</v>
+        <v>5.243095572201478</v>
       </c>
       <c r="E20">
-        <v>17.0505904036342</v>
+        <v>16.9531750099945</v>
       </c>
       <c r="F20">
-        <v>18.96582684766919</v>
+        <v>18.41874703494179</v>
       </c>
       <c r="G20">
-        <v>23.88254582151345</v>
+        <v>22.95474690290279</v>
       </c>
       <c r="H20">
-        <v>2.908398281604762</v>
+        <v>2.86809373249499</v>
       </c>
       <c r="I20">
-        <v>3.75131039483325</v>
+        <v>3.685721650043047</v>
       </c>
       <c r="J20">
-        <v>8.258472377411879</v>
+        <v>8.614732466736577</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.42006584173418</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.909925410947874</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.21594008601554</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.7650212601215</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.07711880155859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.21150405649609</v>
+      </c>
+      <c r="R20">
+        <v>11.90633655845387</v>
+      </c>
+      <c r="S20">
+        <v>13.67062518873271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.23919550786994</v>
+        <v>21.6489084405672</v>
       </c>
       <c r="C21">
-        <v>15.86986252639429</v>
+        <v>16.47032052997106</v>
       </c>
       <c r="D21">
-        <v>5.311153251549785</v>
+        <v>5.528744612400421</v>
       </c>
       <c r="E21">
-        <v>18.25251459465604</v>
+        <v>18.17441650620064</v>
       </c>
       <c r="F21">
-        <v>19.83136732404318</v>
+        <v>18.91840192263071</v>
       </c>
       <c r="G21">
-        <v>25.14946156528996</v>
+        <v>26.08191738232532</v>
       </c>
       <c r="H21">
-        <v>3.165342557880422</v>
+        <v>3.11053648562517</v>
       </c>
       <c r="I21">
-        <v>3.929643174452947</v>
+        <v>3.834967623420093</v>
       </c>
       <c r="J21">
-        <v>8.379505589679679</v>
+        <v>7.84597549400899</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.17760493271567</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.066924697653736</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.51158969070236</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.66728687734112</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.51628671288301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.45576516856348</v>
+      </c>
+      <c r="R21">
+        <v>11.87934049950151</v>
+      </c>
+      <c r="S21">
+        <v>13.81245378069552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.02574773306997</v>
+        <v>22.33204812486197</v>
       </c>
       <c r="C22">
-        <v>16.28038641970089</v>
+        <v>16.87089325485414</v>
       </c>
       <c r="D22">
-        <v>5.448297967074216</v>
+        <v>5.71684758529498</v>
       </c>
       <c r="E22">
-        <v>18.76231397717936</v>
+        <v>18.69890642246527</v>
       </c>
       <c r="F22">
-        <v>20.3654650362737</v>
+        <v>19.20521982125824</v>
       </c>
       <c r="G22">
-        <v>25.91899314121001</v>
+        <v>28.14052679919126</v>
       </c>
       <c r="H22">
-        <v>3.318003506625369</v>
+        <v>3.253997830599244</v>
       </c>
       <c r="I22">
-        <v>4.039920857708494</v>
+        <v>3.925639716196063</v>
       </c>
       <c r="J22">
-        <v>8.454033333993385</v>
+        <v>7.349681847361575</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.01774822847086</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.172129452321766</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.18448360036863</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.61095025606128</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.78599594891661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.09355404700321</v>
+      </c>
+      <c r="R22">
+        <v>11.87358555266234</v>
+      </c>
+      <c r="S22">
+        <v>13.87751863101803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.62449149256472</v>
+        <v>21.99619180091281</v>
       </c>
       <c r="C23">
-        <v>16.03428323991483</v>
+        <v>16.64274344323148</v>
       </c>
       <c r="D23">
-        <v>5.371390960575267</v>
+        <v>5.606577554591706</v>
       </c>
       <c r="E23">
-        <v>18.49324747574282</v>
+        <v>18.41807868091756</v>
       </c>
       <c r="F23">
-        <v>20.10293768627531</v>
+        <v>19.10559012950358</v>
       </c>
       <c r="G23">
-        <v>25.54866240927964</v>
+        <v>26.87090658460656</v>
       </c>
       <c r="H23">
-        <v>3.23725328338972</v>
+        <v>3.178708498585876</v>
       </c>
       <c r="I23">
-        <v>3.978894227070358</v>
+        <v>3.87465717460978</v>
       </c>
       <c r="J23">
-        <v>8.421472372109378</v>
+        <v>7.698643297701686</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.12122100151633</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.145559687077347</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.82747555278207</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.63653930839384</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.65991641840044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.76059255743979</v>
+      </c>
+      <c r="R23">
+        <v>11.86725178398587</v>
+      </c>
+      <c r="S23">
+        <v>13.88591526545624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.00653508071155</v>
+        <v>20.57436950401237</v>
       </c>
       <c r="C24">
-        <v>15.11864463026511</v>
+        <v>15.72150045516862</v>
       </c>
       <c r="D24">
-        <v>5.076672194050677</v>
+        <v>5.218009283053965</v>
       </c>
       <c r="E24">
-        <v>17.43649478624993</v>
+        <v>17.34003758965293</v>
       </c>
       <c r="F24">
-        <v>19.06108244498344</v>
+        <v>18.51207045697966</v>
       </c>
       <c r="G24">
-        <v>24.05921885255328</v>
+        <v>23.10837277571868</v>
       </c>
       <c r="H24">
-        <v>2.924140315468271</v>
+        <v>2.883731000488101</v>
       </c>
       <c r="I24">
-        <v>3.747404344466458</v>
+        <v>3.679890681698177</v>
       </c>
       <c r="J24">
-        <v>8.292205772212323</v>
+        <v>8.651990717885164</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.46401857556131</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.964676444020668</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.41962844488359</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.74555297354596</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.15826460680325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.41554411978293</v>
+      </c>
+      <c r="R24">
+        <v>11.88469974861972</v>
+      </c>
+      <c r="S24">
+        <v>13.74929502897967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.10184402242144</v>
+        <v>18.76975545274194</v>
       </c>
       <c r="C25">
-        <v>14.07049963579285</v>
+        <v>14.5070608111105</v>
       </c>
       <c r="D25">
-        <v>4.737511973511708</v>
+        <v>4.844002992901533</v>
       </c>
       <c r="E25">
-        <v>16.22224057762375</v>
+        <v>16.14505851175065</v>
       </c>
       <c r="F25">
-        <v>17.91561902757386</v>
+        <v>17.50592048268119</v>
       </c>
       <c r="G25">
-        <v>22.4070451949198</v>
+        <v>21.36164802112113</v>
       </c>
       <c r="H25">
-        <v>2.571693605967009</v>
+        <v>2.543779780620826</v>
       </c>
       <c r="I25">
-        <v>3.489531690513195</v>
+        <v>3.452583678198182</v>
       </c>
       <c r="J25">
-        <v>8.1658858790796</v>
+        <v>8.635261088317055</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.75550857063116</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.700671973582113</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.78122652721921</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.87318006149428</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.62969093635053</v>
+        <v>17.78505637479642</v>
+      </c>
+      <c r="R25">
+        <v>11.95998262506854</v>
+      </c>
+      <c r="S25">
+        <v>13.33061857087177</v>
       </c>
     </row>
   </sheetData>
